--- a/data/pca/factorExposure/factorExposure_2016-10-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-10-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01671717527542983</v>
+        <v>-0.01400100736831303</v>
       </c>
       <c r="C2">
-        <v>-0.04888311701167441</v>
+        <v>0.04268119435834702</v>
       </c>
       <c r="D2">
-        <v>-0.03002242953153814</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05761230796875296</v>
+      </c>
+      <c r="E2">
+        <v>-0.04909317015812863</v>
+      </c>
+      <c r="F2">
+        <v>0.08685793371015836</v>
+      </c>
+      <c r="G2">
+        <v>-0.0268055475518643</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.05776727476688847</v>
+        <v>-0.03391581878996041</v>
       </c>
       <c r="C3">
-        <v>-0.09617888980058721</v>
+        <v>0.08280303593544927</v>
       </c>
       <c r="D3">
-        <v>-0.0667185228410586</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.09835166900464855</v>
+      </c>
+      <c r="E3">
+        <v>-0.07381498711698645</v>
+      </c>
+      <c r="F3">
+        <v>0.03178209266830147</v>
+      </c>
+      <c r="G3">
+        <v>0.05857884870455511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06346479946485499</v>
+        <v>-0.05709821685564121</v>
       </c>
       <c r="C4">
-        <v>-0.05978948607702522</v>
+        <v>0.06229038529943978</v>
       </c>
       <c r="D4">
-        <v>-0.0197880220623294</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05893693066013592</v>
+      </c>
+      <c r="E4">
+        <v>-0.04527788086577325</v>
+      </c>
+      <c r="F4">
+        <v>0.07814287190963297</v>
+      </c>
+      <c r="G4">
+        <v>0.04300514209090314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.0272376519582694</v>
+        <v>-0.03507979117690093</v>
       </c>
       <c r="C6">
-        <v>-0.04333210564523918</v>
+        <v>0.03524920399476238</v>
       </c>
       <c r="D6">
-        <v>-0.02315111895147052</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06517559370924941</v>
+      </c>
+      <c r="E6">
+        <v>-0.05763180290549749</v>
+      </c>
+      <c r="F6">
+        <v>0.07053971325537763</v>
+      </c>
+      <c r="G6">
+        <v>0.02047417069808969</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02341989367626163</v>
+        <v>-0.02094580048375171</v>
       </c>
       <c r="C7">
-        <v>-0.03862516521181163</v>
+        <v>0.0349870569132545</v>
       </c>
       <c r="D7">
-        <v>0.007922931418247932</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03792192624730221</v>
+      </c>
+      <c r="E7">
+        <v>-0.03237340310281801</v>
+      </c>
+      <c r="F7">
+        <v>0.112150716525304</v>
+      </c>
+      <c r="G7">
+        <v>0.01220837897185969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0001141926700085373</v>
+        <v>-0.00503408365703923</v>
       </c>
       <c r="C8">
-        <v>-0.01174209527584579</v>
+        <v>0.01986857752144899</v>
       </c>
       <c r="D8">
-        <v>-0.02404241654002888</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03625991884709055</v>
+      </c>
+      <c r="E8">
+        <v>-0.03442287214080465</v>
+      </c>
+      <c r="F8">
+        <v>0.05564465382270094</v>
+      </c>
+      <c r="G8">
+        <v>0.01125829524536885</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.02904505255135616</v>
+        <v>-0.03610270104806088</v>
       </c>
       <c r="C9">
-        <v>-0.04134677400035968</v>
+        <v>0.04860024938080344</v>
       </c>
       <c r="D9">
-        <v>-0.01261872463740609</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04316127028431371</v>
+      </c>
+      <c r="E9">
+        <v>-0.03799859309854302</v>
+      </c>
+      <c r="F9">
+        <v>0.0873576748501695</v>
+      </c>
+      <c r="G9">
+        <v>0.02693118666852737</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07846810361320078</v>
+        <v>-0.09901187354090878</v>
       </c>
       <c r="C10">
-        <v>0.1936853087029021</v>
+        <v>-0.1896139778025214</v>
       </c>
       <c r="D10">
-        <v>-0.009070593175278851</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.00165623905909134</v>
+      </c>
+      <c r="E10">
+        <v>-0.04231015829363174</v>
+      </c>
+      <c r="F10">
+        <v>0.03946089124782073</v>
+      </c>
+      <c r="G10">
+        <v>0.006700385535430097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04130274746464874</v>
+        <v>-0.03610006920672913</v>
       </c>
       <c r="C11">
-        <v>-0.05478909655930533</v>
+        <v>0.05073779080824196</v>
       </c>
       <c r="D11">
-        <v>0.002735022783288696</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03238969392506012</v>
+      </c>
+      <c r="E11">
+        <v>-0.005042704501881464</v>
+      </c>
+      <c r="F11">
+        <v>0.06610658393525738</v>
+      </c>
+      <c r="G11">
+        <v>0.0181354694835158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.03517593230031398</v>
+        <v>-0.03648590656560696</v>
       </c>
       <c r="C12">
-        <v>-0.04549811047155449</v>
+        <v>0.04582360567352583</v>
       </c>
       <c r="D12">
-        <v>0.002742186544887709</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02514880257236604</v>
+      </c>
+      <c r="E12">
+        <v>-0.01303444818889233</v>
+      </c>
+      <c r="F12">
+        <v>0.06717150233304643</v>
+      </c>
+      <c r="G12">
+        <v>0.01341197835533892</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.009395183899176129</v>
+        <v>-0.01179211295756297</v>
       </c>
       <c r="C13">
-        <v>-0.04223474954675961</v>
+        <v>0.04135176210020678</v>
       </c>
       <c r="D13">
-        <v>-0.02193032245606361</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06439769684883971</v>
+      </c>
+      <c r="E13">
+        <v>-0.06421715103837633</v>
+      </c>
+      <c r="F13">
+        <v>0.1164144715638491</v>
+      </c>
+      <c r="G13">
+        <v>0.02342012032676399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.00654741924307456</v>
+        <v>-0.005339744348548511</v>
       </c>
       <c r="C14">
-        <v>-0.03269321901846357</v>
+        <v>0.02858380055042194</v>
       </c>
       <c r="D14">
-        <v>0.01665171558158425</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02975485741838705</v>
+      </c>
+      <c r="E14">
+        <v>-0.02418733479530541</v>
+      </c>
+      <c r="F14">
+        <v>0.09877524238691068</v>
+      </c>
+      <c r="G14">
+        <v>-0.003571821486457897</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001223059314700102</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.000973377114169571</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.001630188937316609</v>
+      </c>
+      <c r="E15">
+        <v>0.0003384171811286791</v>
+      </c>
+      <c r="F15">
+        <v>0.0004958754498539654</v>
+      </c>
+      <c r="G15">
+        <v>-0.001049909082947729</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03438143337375011</v>
+        <v>-0.03321284847455074</v>
       </c>
       <c r="C16">
-        <v>-0.04122843405028009</v>
+        <v>0.04417224356587042</v>
       </c>
       <c r="D16">
-        <v>-0.002246781614005589</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02778802199516999</v>
+      </c>
+      <c r="E16">
+        <v>-0.01853352349047141</v>
+      </c>
+      <c r="F16">
+        <v>0.07047954120166469</v>
+      </c>
+      <c r="G16">
+        <v>0.004006388093702889</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.03256291355745432</v>
+        <v>-0.01795020114619807</v>
       </c>
       <c r="C19">
-        <v>-0.06023467238693198</v>
+        <v>0.05012113165092339</v>
       </c>
       <c r="D19">
-        <v>-0.06983023032148142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1030755083338914</v>
+      </c>
+      <c r="E19">
+        <v>-0.08567528721939158</v>
+      </c>
+      <c r="F19">
+        <v>0.1066414195278982</v>
+      </c>
+      <c r="G19">
+        <v>-0.01497764260868972</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01434221074141135</v>
+        <v>-0.01350081450646778</v>
       </c>
       <c r="C20">
-        <v>-0.04414561525535511</v>
+        <v>0.03952097964326935</v>
       </c>
       <c r="D20">
-        <v>-0.01626555815684921</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04094445593412821</v>
+      </c>
+      <c r="E20">
+        <v>-0.05555884798124407</v>
+      </c>
+      <c r="F20">
+        <v>0.09298926495278587</v>
+      </c>
+      <c r="G20">
+        <v>0.008446066168019718</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.008246024498915974</v>
+        <v>-0.007054887064529742</v>
       </c>
       <c r="C21">
-        <v>-0.04753151970340428</v>
+        <v>0.04191786089234188</v>
       </c>
       <c r="D21">
-        <v>-0.04037576255336914</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06973537348388623</v>
+      </c>
+      <c r="E21">
+        <v>-0.06638341257566517</v>
+      </c>
+      <c r="F21">
+        <v>0.1327429907741099</v>
+      </c>
+      <c r="G21">
+        <v>0.009360222667793006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.003145427275940756</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.01515681339265385</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03010366692347795</v>
+      </c>
+      <c r="E22">
+        <v>-0.01195327990043242</v>
+      </c>
+      <c r="F22">
+        <v>0.01189942581865972</v>
+      </c>
+      <c r="G22">
+        <v>0.03492973638786406</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.003195344777537863</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.01512366396833103</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.02979088526068154</v>
+      </c>
+      <c r="E23">
+        <v>-0.01217179460899281</v>
+      </c>
+      <c r="F23">
+        <v>0.01159564477477495</v>
+      </c>
+      <c r="G23">
+        <v>0.03488786963012184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.02926469584471393</v>
+        <v>-0.03195243661114718</v>
       </c>
       <c r="C24">
-        <v>-0.04736844322283943</v>
+        <v>0.05111422402032691</v>
       </c>
       <c r="D24">
-        <v>0.003141796730488529</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02602574658093093</v>
+      </c>
+      <c r="E24">
+        <v>-0.01435155067939874</v>
+      </c>
+      <c r="F24">
+        <v>0.07641432094371353</v>
+      </c>
+      <c r="G24">
+        <v>0.01109675193329808</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04649268027748574</v>
+        <v>-0.04185370869385355</v>
       </c>
       <c r="C25">
-        <v>-0.05811659475600558</v>
+        <v>0.05778079044894014</v>
       </c>
       <c r="D25">
-        <v>0.01555853743479649</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02442246731238039</v>
+      </c>
+      <c r="E25">
+        <v>-0.0106431176958361</v>
+      </c>
+      <c r="F25">
+        <v>0.07848422353700281</v>
+      </c>
+      <c r="G25">
+        <v>0.02852520415780618</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.008938062518063342</v>
+        <v>-0.01383396142063521</v>
       </c>
       <c r="C26">
-        <v>-0.0171778661732349</v>
+        <v>0.01474351080980362</v>
       </c>
       <c r="D26">
-        <v>-0.005165116233628882</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02478416059321411</v>
+      </c>
+      <c r="E26">
+        <v>-0.02627458502468947</v>
+      </c>
+      <c r="F26">
+        <v>0.07757548945935359</v>
+      </c>
+      <c r="G26">
+        <v>-0.01072772466295417</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.09354708518732716</v>
+        <v>-0.1325176149625318</v>
       </c>
       <c r="C28">
-        <v>0.2223766590281752</v>
+        <v>-0.2391206664377663</v>
       </c>
       <c r="D28">
-        <v>-0.01010116562181974</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01789757797232297</v>
+      </c>
+      <c r="E28">
+        <v>-0.04183464860589051</v>
+      </c>
+      <c r="F28">
+        <v>0.05177919149536372</v>
+      </c>
+      <c r="G28">
+        <v>0.01770567072179998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01148952839544042</v>
+        <v>-0.007022391819481402</v>
       </c>
       <c r="C29">
-        <v>-0.02517447112161104</v>
+        <v>0.02446333957613339</v>
       </c>
       <c r="D29">
-        <v>0.01726347927200172</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01989386773295339</v>
+      </c>
+      <c r="E29">
+        <v>-0.02736667854305593</v>
+      </c>
+      <c r="F29">
+        <v>0.0884936988958845</v>
+      </c>
+      <c r="G29">
+        <v>0.008111775938837711</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04895919333449893</v>
+        <v>-0.03893612331869871</v>
       </c>
       <c r="C30">
-        <v>-0.06875998920781899</v>
+        <v>0.05988164181413996</v>
       </c>
       <c r="D30">
-        <v>-0.04152300654041467</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1044800953336418</v>
+      </c>
+      <c r="E30">
+        <v>-0.03475013588210654</v>
+      </c>
+      <c r="F30">
+        <v>0.09916398894486597</v>
+      </c>
+      <c r="G30">
+        <v>-0.0150872799546997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.04259045687777525</v>
+        <v>-0.05455097920775523</v>
       </c>
       <c r="C31">
-        <v>-0.03198889852230598</v>
+        <v>0.04734040662397027</v>
       </c>
       <c r="D31">
-        <v>0.0219684882164353</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.004714918534221992</v>
+      </c>
+      <c r="E31">
+        <v>-0.04299778548342471</v>
+      </c>
+      <c r="F31">
+        <v>0.08374867716018325</v>
+      </c>
+      <c r="G31">
+        <v>0.04733427265968585</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.002212322098665116</v>
+        <v>-0.002077112533599927</v>
       </c>
       <c r="C32">
-        <v>-0.04566015917580268</v>
+        <v>0.03202920582672217</v>
       </c>
       <c r="D32">
-        <v>-0.02858727015871931</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05267757936765143</v>
+      </c>
+      <c r="E32">
+        <v>-0.02006483283490858</v>
+      </c>
+      <c r="F32">
+        <v>0.06617258799090121</v>
+      </c>
+      <c r="G32">
+        <v>-0.006881852942352598</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.02801219179167821</v>
+        <v>-0.02383209819445732</v>
       </c>
       <c r="C33">
-        <v>-0.06335540514598922</v>
+        <v>0.05241926055609981</v>
       </c>
       <c r="D33">
-        <v>-0.02475946538727886</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08139943176951901</v>
+      </c>
+      <c r="E33">
+        <v>-0.04865126950041699</v>
+      </c>
+      <c r="F33">
+        <v>0.1298998600493408</v>
+      </c>
+      <c r="G33">
+        <v>0.02754305295972658</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05073045133989287</v>
+        <v>-0.04133882727827445</v>
       </c>
       <c r="C34">
-        <v>-0.05649339073901503</v>
+        <v>0.06262289289506662</v>
       </c>
       <c r="D34">
-        <v>0.01247218940548867</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03278316790200985</v>
+      </c>
+      <c r="E34">
+        <v>0.004460839492249276</v>
+      </c>
+      <c r="F34">
+        <v>0.07559301971645201</v>
+      </c>
+      <c r="G34">
+        <v>0.01597984577322777</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.008607592114801804</v>
+        <v>-0.01468746731621651</v>
       </c>
       <c r="C36">
-        <v>-0.01258344212851592</v>
+        <v>0.01013101400193057</v>
       </c>
       <c r="D36">
-        <v>-0.00240311153292119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02639149194067854</v>
+      </c>
+      <c r="E36">
+        <v>-0.03365158576110723</v>
+      </c>
+      <c r="F36">
+        <v>0.08537284072610229</v>
+      </c>
+      <c r="G36">
+        <v>0.01425372255406638</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03404313899572686</v>
+        <v>-0.02611435527670573</v>
       </c>
       <c r="C38">
-        <v>-0.02450110207602637</v>
+        <v>0.02387384164235375</v>
       </c>
       <c r="D38">
-        <v>0.002011856032398148</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02642236324464738</v>
+      </c>
+      <c r="E38">
+        <v>-0.03483164228214087</v>
+      </c>
+      <c r="F38">
+        <v>0.07150740700026639</v>
+      </c>
+      <c r="G38">
+        <v>0.01104971719701589</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.0405379928585775</v>
+        <v>-0.03729894631870031</v>
       </c>
       <c r="C39">
-        <v>-0.07320864118215753</v>
+        <v>0.06634982561679015</v>
       </c>
       <c r="D39">
-        <v>-0.02097170434922666</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05095568079144529</v>
+      </c>
+      <c r="E39">
+        <v>-0.01714291244793221</v>
+      </c>
+      <c r="F39">
+        <v>0.09304407322441915</v>
+      </c>
+      <c r="G39">
+        <v>-0.0132937256704772</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01802306821264968</v>
+        <v>-0.01701975781389237</v>
       </c>
       <c r="C40">
-        <v>-0.0280701160292084</v>
+        <v>0.03637910937228967</v>
       </c>
       <c r="D40">
-        <v>-0.03729824806236169</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03750381338523169</v>
+      </c>
+      <c r="E40">
+        <v>-0.07117085942096606</v>
+      </c>
+      <c r="F40">
+        <v>0.09147346005168572</v>
+      </c>
+      <c r="G40">
+        <v>0.05170845807060674</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01037614534797281</v>
+        <v>-0.01849028952561201</v>
       </c>
       <c r="C41">
-        <v>-0.003703242195650405</v>
+        <v>0.003125650785506627</v>
       </c>
       <c r="D41">
-        <v>0.003514604833105969</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01770327606183889</v>
+      </c>
+      <c r="E41">
+        <v>-0.03518101980152078</v>
+      </c>
+      <c r="F41">
+        <v>0.0754908954994698</v>
+      </c>
+      <c r="G41">
+        <v>0.006763880293801762</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.00550852397560637</v>
+        <v>-0.002922214061657312</v>
       </c>
       <c r="C42">
-        <v>-0.0191344921265202</v>
+        <v>0.01031004773409357</v>
       </c>
       <c r="D42">
-        <v>-0.0008228745144387202</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.002377243869530169</v>
+      </c>
+      <c r="E42">
+        <v>-0.005374748206646953</v>
+      </c>
+      <c r="F42">
+        <v>-0.0126675809329644</v>
+      </c>
+      <c r="G42">
+        <v>0.009785447398239343</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03153633562138759</v>
+        <v>-0.03054987809958827</v>
       </c>
       <c r="C43">
-        <v>-0.01763391191871268</v>
+        <v>0.01877099138855113</v>
       </c>
       <c r="D43">
-        <v>-0.003243410203913603</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04131007948451749</v>
+      </c>
+      <c r="E43">
+        <v>-0.04006380104520799</v>
+      </c>
+      <c r="F43">
+        <v>0.09044659640821563</v>
+      </c>
+      <c r="G43">
+        <v>0.02865050835350659</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.0209744252519868</v>
+        <v>-0.01548719281702516</v>
       </c>
       <c r="C44">
-        <v>-0.05430033330178385</v>
+        <v>0.05108603732539498</v>
       </c>
       <c r="D44">
-        <v>-0.01618626514989243</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04142291189149906</v>
+      </c>
+      <c r="E44">
+        <v>-0.05774926974863241</v>
+      </c>
+      <c r="F44">
+        <v>0.09679214634328115</v>
+      </c>
+      <c r="G44">
+        <v>0.003460176216059087</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-4.475650248704372e-05</v>
+        <v>-0.007462255957485131</v>
       </c>
       <c r="C46">
-        <v>-0.01923535909265624</v>
+        <v>0.02230959430353453</v>
       </c>
       <c r="D46">
-        <v>0.01724762303063469</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01360206115530555</v>
+      </c>
+      <c r="E46">
+        <v>-0.03108145010304538</v>
+      </c>
+      <c r="F46">
+        <v>0.1036343854309772</v>
+      </c>
+      <c r="G46">
+        <v>0.004092445856250268</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.07681373460324288</v>
+        <v>-0.08559161918663785</v>
       </c>
       <c r="C47">
-        <v>-0.07245312759197312</v>
+        <v>0.07922774360317643</v>
       </c>
       <c r="D47">
-        <v>0.01620461430916611</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01299461061057557</v>
+      </c>
+      <c r="E47">
+        <v>-0.04882703554296086</v>
+      </c>
+      <c r="F47">
+        <v>0.08044088677646383</v>
+      </c>
+      <c r="G47">
+        <v>0.05123961606718919</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.019618506974143</v>
+        <v>-0.01596813554108322</v>
       </c>
       <c r="C48">
-        <v>-0.0113553706117188</v>
+        <v>0.01495901215278188</v>
       </c>
       <c r="D48">
-        <v>0.002699237975197065</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01718221833399106</v>
+      </c>
+      <c r="E48">
+        <v>-0.04308675626352743</v>
+      </c>
+      <c r="F48">
+        <v>0.09856074044377833</v>
+      </c>
+      <c r="G48">
+        <v>0.01170123472158085</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.08817233597555645</v>
+        <v>-0.0722112060775966</v>
       </c>
       <c r="C50">
-        <v>-0.0669769331756379</v>
+        <v>0.06845450453882113</v>
       </c>
       <c r="D50">
-        <v>0.0261671330648805</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002243762364873962</v>
+      </c>
+      <c r="E50">
+        <v>-0.04736688860852132</v>
+      </c>
+      <c r="F50">
+        <v>0.06948569460453027</v>
+      </c>
+      <c r="G50">
+        <v>0.07863020221660491</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01203714486088609</v>
+        <v>-0.01006573264060086</v>
       </c>
       <c r="C51">
-        <v>-0.04793661458062127</v>
+        <v>0.03380136658958127</v>
       </c>
       <c r="D51">
-        <v>-0.004908856771956912</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04771699030155776</v>
+      </c>
+      <c r="E51">
+        <v>-0.02041584989132048</v>
+      </c>
+      <c r="F51">
+        <v>0.08961793948768372</v>
+      </c>
+      <c r="G51">
+        <v>-0.01114512916285574</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.09477636209229864</v>
+        <v>-0.09074712843388676</v>
       </c>
       <c r="C53">
-        <v>-0.07584850669449164</v>
+        <v>0.08679611971600448</v>
       </c>
       <c r="D53">
-        <v>0.04022940326898881</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03868722399255658</v>
+      </c>
+      <c r="E53">
+        <v>-0.04923965795358853</v>
+      </c>
+      <c r="F53">
+        <v>0.08690411883982098</v>
+      </c>
+      <c r="G53">
+        <v>0.05987706247951749</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.02901804639049203</v>
+        <v>-0.02920264252856996</v>
       </c>
       <c r="C54">
-        <v>-0.01631834475236281</v>
+        <v>0.02477185499255008</v>
       </c>
       <c r="D54">
-        <v>-0.003914122480478952</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03509052473282543</v>
+      </c>
+      <c r="E54">
+        <v>-0.03457320908269574</v>
+      </c>
+      <c r="F54">
+        <v>0.09762141374480576</v>
+      </c>
+      <c r="G54">
+        <v>0.007090986175997114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07338322458740125</v>
+        <v>-0.08235015570176564</v>
       </c>
       <c r="C55">
-        <v>-0.06973918378198309</v>
+        <v>0.07047970295839583</v>
       </c>
       <c r="D55">
-        <v>0.04545045986314292</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04671116613397348</v>
+      </c>
+      <c r="E55">
+        <v>-0.03987894170350726</v>
+      </c>
+      <c r="F55">
+        <v>0.06152332496503513</v>
+      </c>
+      <c r="G55">
+        <v>0.04973210042241667</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1482916760920298</v>
+        <v>-0.1446203431933658</v>
       </c>
       <c r="C56">
-        <v>-0.09451485444757886</v>
+        <v>0.1038458143367623</v>
       </c>
       <c r="D56">
-        <v>0.0511174668403243</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04904766172186176</v>
+      </c>
+      <c r="E56">
+        <v>-0.04650063022703203</v>
+      </c>
+      <c r="F56">
+        <v>0.05148194372896991</v>
+      </c>
+      <c r="G56">
+        <v>0.05693986511293055</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.005625215454690222</v>
+        <v>-0.002439475163270663</v>
       </c>
       <c r="C57">
-        <v>-0.001909096604937005</v>
+        <v>0.0009773952443733885</v>
       </c>
       <c r="D57">
-        <v>-0.02066783302308407</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01667185726798552</v>
+      </c>
+      <c r="E57">
+        <v>-0.009207387227646718</v>
+      </c>
+      <c r="F57">
+        <v>0.01408017398719067</v>
+      </c>
+      <c r="G57">
+        <v>0.003701925289590012</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.06789512439376823</v>
+        <v>-0.03453140624647684</v>
       </c>
       <c r="C58">
-        <v>-0.04325700761589552</v>
+        <v>0.02861506602175859</v>
       </c>
       <c r="D58">
-        <v>-0.9212100634997589</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4939730880975861</v>
+      </c>
+      <c r="E58">
+        <v>-0.6956160028961974</v>
+      </c>
+      <c r="F58">
+        <v>-0.4337529546254323</v>
+      </c>
+      <c r="G58">
+        <v>-0.0672441553474712</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1352384121772712</v>
+        <v>-0.1477446821170935</v>
       </c>
       <c r="C59">
-        <v>0.2029789682155064</v>
+        <v>-0.1909390431474697</v>
       </c>
       <c r="D59">
-        <v>-0.0215210463926821</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.0287161427651437</v>
+      </c>
+      <c r="E59">
+        <v>-0.02148708632609172</v>
+      </c>
+      <c r="F59">
+        <v>0.02295650332229624</v>
+      </c>
+      <c r="G59">
+        <v>-0.03163607084124104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3158823424347759</v>
+        <v>-0.2827574606025149</v>
       </c>
       <c r="C60">
-        <v>-0.08645288952645645</v>
+        <v>0.09751991744316071</v>
       </c>
       <c r="D60">
-        <v>-0.04520813443510732</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2119138953418238</v>
+      </c>
+      <c r="E60">
+        <v>0.2758203171085936</v>
+      </c>
+      <c r="F60">
+        <v>-0.1260265048074349</v>
+      </c>
+      <c r="G60">
+        <v>0.0451005841161218</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.03613572125593689</v>
+        <v>-0.03953434704498376</v>
       </c>
       <c r="C61">
-        <v>-0.06142477554155326</v>
+        <v>0.06031624839932265</v>
       </c>
       <c r="D61">
-        <v>-0.01341337212911046</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04685692646638185</v>
+      </c>
+      <c r="E61">
+        <v>-0.02215701766031128</v>
+      </c>
+      <c r="F61">
+        <v>0.08241301306827777</v>
+      </c>
+      <c r="G61">
+        <v>0.01567603624257412</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01562633880370345</v>
+        <v>-0.01582837353865212</v>
       </c>
       <c r="C63">
-        <v>-0.03257781715851225</v>
+        <v>0.0299441344593397</v>
       </c>
       <c r="D63">
-        <v>0.00735460238543242</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.0206710453670437</v>
+      </c>
+      <c r="E63">
+        <v>-0.0363780353949055</v>
+      </c>
+      <c r="F63">
+        <v>0.07698698363518222</v>
+      </c>
+      <c r="G63">
+        <v>0.0311560993778497</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.0487148582692248</v>
+        <v>-0.0526340983467354</v>
       </c>
       <c r="C64">
-        <v>-0.02823679649131627</v>
+        <v>0.04973113225307331</v>
       </c>
       <c r="D64">
-        <v>0.006342051694403632</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01440527584670393</v>
+      </c>
+      <c r="E64">
+        <v>-0.01920064217306771</v>
+      </c>
+      <c r="F64">
+        <v>0.09185755977480442</v>
+      </c>
+      <c r="G64">
+        <v>0.008092180197204766</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.09096851175530361</v>
+        <v>-0.06837023769973481</v>
       </c>
       <c r="C65">
-        <v>-0.04853475275164292</v>
+        <v>0.03957114342326639</v>
       </c>
       <c r="D65">
-        <v>-0.02817128336611849</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08206969557480358</v>
+      </c>
+      <c r="E65">
+        <v>-0.034917295488607</v>
+      </c>
+      <c r="F65">
+        <v>0.02716368726972643</v>
+      </c>
+      <c r="G65">
+        <v>-0.003118786585534136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.06377666514808146</v>
+        <v>-0.05080968221456482</v>
       </c>
       <c r="C66">
-        <v>-0.1097281324187011</v>
+        <v>0.09009534588282847</v>
       </c>
       <c r="D66">
-        <v>-0.02567292076559359</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07673002617931179</v>
+      </c>
+      <c r="E66">
+        <v>-0.02083239709963416</v>
+      </c>
+      <c r="F66">
+        <v>0.09357913155995579</v>
+      </c>
+      <c r="G66">
+        <v>0.006045691870150774</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05885606500375368</v>
+        <v>-0.04861078333892</v>
       </c>
       <c r="C67">
-        <v>-0.02986349587757233</v>
+        <v>0.02954988651301449</v>
       </c>
       <c r="D67">
-        <v>0.009258419489988514</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01421259048127865</v>
+      </c>
+      <c r="E67">
+        <v>-0.0202877843053637</v>
+      </c>
+      <c r="F67">
+        <v>0.05836856040867156</v>
+      </c>
+      <c r="G67">
+        <v>0.0153590397334288</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1206029396655765</v>
+        <v>-0.1549927662848359</v>
       </c>
       <c r="C68">
-        <v>0.2912855839245438</v>
+        <v>-0.2595251001457085</v>
       </c>
       <c r="D68">
-        <v>-0.001864964300368352</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02301234966165584</v>
+      </c>
+      <c r="E68">
+        <v>-0.03648038308947868</v>
+      </c>
+      <c r="F68">
+        <v>0.01921696808579215</v>
+      </c>
+      <c r="G68">
+        <v>0.005300623605457139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08604594894408725</v>
+        <v>-0.08609813885664866</v>
       </c>
       <c r="C69">
-        <v>-0.06894862306665502</v>
+        <v>0.08331535282290016</v>
       </c>
       <c r="D69">
-        <v>0.04539381412404895</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.009318329159600408</v>
+      </c>
+      <c r="E69">
+        <v>-0.02281937815884534</v>
+      </c>
+      <c r="F69">
+        <v>0.0951782058006997</v>
+      </c>
+      <c r="G69">
+        <v>0.02828183566843228</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1218871079169676</v>
+        <v>-0.142918399925742</v>
       </c>
       <c r="C71">
-        <v>0.2428605607279492</v>
+        <v>-0.2339655885783005</v>
       </c>
       <c r="D71">
-        <v>-0.01438475417253573</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01153427750278356</v>
+      </c>
+      <c r="E71">
+        <v>-0.0547285089095516</v>
+      </c>
+      <c r="F71">
+        <v>0.05673339659287213</v>
+      </c>
+      <c r="G71">
+        <v>0.02888378937523645</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.08474874742722742</v>
+        <v>-0.09156334430560052</v>
       </c>
       <c r="C72">
-        <v>-0.05137683660977883</v>
+        <v>0.05579468371300281</v>
       </c>
       <c r="D72">
-        <v>0.02425742395903402</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01908550703826083</v>
+      </c>
+      <c r="E72">
+        <v>-0.008955491714710054</v>
+      </c>
+      <c r="F72">
+        <v>0.07437958808620018</v>
+      </c>
+      <c r="G72">
+        <v>0.02326956980216111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4431870054135144</v>
+        <v>-0.3506799225670885</v>
       </c>
       <c r="C73">
-        <v>-0.07425259646249327</v>
+        <v>0.07909904539328534</v>
       </c>
       <c r="D73">
-        <v>-0.1279482499707795</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4301118542798108</v>
+      </c>
+      <c r="E73">
+        <v>0.4763677152911197</v>
+      </c>
+      <c r="F73">
+        <v>-0.3031886337501898</v>
+      </c>
+      <c r="G73">
+        <v>0.08998667738800374</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1165327626843414</v>
+        <v>-0.1118362685215736</v>
       </c>
       <c r="C74">
-        <v>-0.1176535067989537</v>
+        <v>0.1015742579604983</v>
       </c>
       <c r="D74">
-        <v>0.0455392696816526</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02739157667591482</v>
+      </c>
+      <c r="E74">
+        <v>-0.06769854199704588</v>
+      </c>
+      <c r="F74">
+        <v>0.06292211653073476</v>
+      </c>
+      <c r="G74">
+        <v>0.07456453221140642</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2577865095323207</v>
+        <v>-0.2547670504480243</v>
       </c>
       <c r="C75">
-        <v>-0.1300013419397092</v>
+        <v>0.1431899776040976</v>
       </c>
       <c r="D75">
-        <v>0.0863795292058173</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1271679006639271</v>
+      </c>
+      <c r="E75">
+        <v>-0.08279903651544424</v>
+      </c>
+      <c r="F75">
+        <v>0.02578245509820145</v>
+      </c>
+      <c r="G75">
+        <v>0.07498973420074782</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1174457823436214</v>
+        <v>-0.1279994627267916</v>
       </c>
       <c r="C76">
-        <v>-0.1046114836335287</v>
+        <v>0.1051661868778986</v>
       </c>
       <c r="D76">
-        <v>0.0582754479593306</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.06163211033582896</v>
+      </c>
+      <c r="E76">
+        <v>-0.0693928799353348</v>
+      </c>
+      <c r="F76">
+        <v>0.06849143623130383</v>
+      </c>
+      <c r="G76">
+        <v>0.0622002616229636</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07348233381191992</v>
+        <v>-0.06102901817851475</v>
       </c>
       <c r="C77">
-        <v>-0.05864996123040554</v>
+        <v>0.06942010389598269</v>
       </c>
       <c r="D77">
-        <v>-0.05000529171628023</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06358064410607474</v>
+      </c>
+      <c r="E77">
+        <v>-0.06352941113388498</v>
+      </c>
+      <c r="F77">
+        <v>0.1201717319589956</v>
+      </c>
+      <c r="G77">
+        <v>-0.1249693207684322</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04295007025958131</v>
+        <v>-0.0406990927518179</v>
       </c>
       <c r="C78">
-        <v>-0.04527601760449009</v>
+        <v>0.0538855007338812</v>
       </c>
       <c r="D78">
-        <v>-0.0173735384319816</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07018977968255796</v>
+      </c>
+      <c r="E78">
+        <v>-0.01394453689512063</v>
+      </c>
+      <c r="F78">
+        <v>0.09511686432514417</v>
+      </c>
+      <c r="G78">
+        <v>0.009736424115347199</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.01140026789658594</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0335152727139229</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.04546399654714817</v>
+      </c>
+      <c r="E79">
+        <v>-0.03447456210450726</v>
+      </c>
+      <c r="F79">
+        <v>0.02114620920879209</v>
+      </c>
+      <c r="G79">
+        <v>0.0417980505062539</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04986641827816538</v>
+        <v>-0.03777868131157804</v>
       </c>
       <c r="C80">
-        <v>-0.05135713697956964</v>
+        <v>0.04743689230254745</v>
       </c>
       <c r="D80">
-        <v>-0.0389982112166113</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04413280548275156</v>
+      </c>
+      <c r="E80">
+        <v>-0.01369324174157895</v>
+      </c>
+      <c r="F80">
+        <v>0.0368829115862201</v>
+      </c>
+      <c r="G80">
+        <v>-0.03995859356171032</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1382164437952389</v>
+        <v>-0.1400978662812232</v>
       </c>
       <c r="C81">
-        <v>-0.08165964636116278</v>
+        <v>0.09810782422296604</v>
       </c>
       <c r="D81">
-        <v>0.04842206857739229</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.0912397328429102</v>
+      </c>
+      <c r="E81">
+        <v>-0.07981774683628244</v>
+      </c>
+      <c r="F81">
+        <v>0.02882191865331047</v>
+      </c>
+      <c r="G81">
+        <v>0.05861084092212665</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.07152139691887673</v>
+        <v>-0.1909024722800852</v>
       </c>
       <c r="C82">
-        <v>-0.04583519613596862</v>
+        <v>0.1380362245790972</v>
       </c>
       <c r="D82">
-        <v>0.02850602647307795</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2220848241998286</v>
+      </c>
+      <c r="E82">
+        <v>-0.006305581723647194</v>
+      </c>
+      <c r="F82">
+        <v>0.07625495052250661</v>
+      </c>
+      <c r="G82">
+        <v>0.031298506797176</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.0264944635708949</v>
+        <v>-0.02686481218212067</v>
       </c>
       <c r="C83">
-        <v>-0.01998849445068607</v>
+        <v>0.03570996114501632</v>
       </c>
       <c r="D83">
-        <v>-0.01966440797273767</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03445043440741721</v>
+      </c>
+      <c r="E83">
+        <v>-0.00683791360311287</v>
+      </c>
+      <c r="F83">
+        <v>0.05218415070389896</v>
+      </c>
+      <c r="G83">
+        <v>-0.02159683375696093</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.237766929632914</v>
+        <v>-0.2074556188024461</v>
       </c>
       <c r="C85">
-        <v>-0.1192461857110885</v>
+        <v>0.1249866273627729</v>
       </c>
       <c r="D85">
-        <v>0.1592602068022444</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1094242862228553</v>
+      </c>
+      <c r="E85">
+        <v>-0.005004572507375992</v>
+      </c>
+      <c r="F85">
+        <v>-0.01691569214034129</v>
+      </c>
+      <c r="G85">
+        <v>0.1229083635948415</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01083474699849482</v>
+        <v>-0.01107624016681912</v>
       </c>
       <c r="C86">
-        <v>-0.02678798185510523</v>
+        <v>0.03312807340900956</v>
       </c>
       <c r="D86">
-        <v>-0.03680999420724734</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07802406949553589</v>
+      </c>
+      <c r="E86">
+        <v>-0.04533507881633666</v>
+      </c>
+      <c r="F86">
+        <v>0.1448027515752523</v>
+      </c>
+      <c r="G86">
+        <v>-0.003093615929904851</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.01381026066326277</v>
+        <v>-0.0200458617168032</v>
       </c>
       <c r="C87">
-        <v>-0.02405388363049194</v>
+        <v>0.01877028964905082</v>
       </c>
       <c r="D87">
-        <v>-0.08884380890855474</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09049440393348837</v>
+      </c>
+      <c r="E87">
+        <v>-0.08113540162040528</v>
+      </c>
+      <c r="F87">
+        <v>0.09787836622328525</v>
+      </c>
+      <c r="G87">
+        <v>-0.03076621431234352</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1019218083891983</v>
+        <v>-0.08851161489935654</v>
       </c>
       <c r="C88">
-        <v>-0.07388542480213066</v>
+        <v>0.06344973719279962</v>
       </c>
       <c r="D88">
-        <v>0.019974228986346</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01330140226005367</v>
+      </c>
+      <c r="E88">
+        <v>-0.02884788330613132</v>
+      </c>
+      <c r="F88">
+        <v>0.07403660796952294</v>
+      </c>
+      <c r="G88">
+        <v>-0.02867352760783857</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1931517963864424</v>
+        <v>-0.2233706049356116</v>
       </c>
       <c r="C89">
-        <v>0.374674835410068</v>
+        <v>-0.3791292213608686</v>
       </c>
       <c r="D89">
-        <v>0.02736903624468283</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02251159758539041</v>
+      </c>
+      <c r="E89">
+        <v>-0.02867885374566003</v>
+      </c>
+      <c r="F89">
+        <v>0.09880450401565413</v>
+      </c>
+      <c r="G89">
+        <v>-0.06736122612057849</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1783412081161556</v>
+        <v>-0.2022040659140944</v>
       </c>
       <c r="C90">
-        <v>0.3479429179963094</v>
+        <v>-0.3175586647413445</v>
       </c>
       <c r="D90">
-        <v>-0.003446885443118525</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01571303063958382</v>
+      </c>
+      <c r="E90">
+        <v>-0.06012602912826386</v>
+      </c>
+      <c r="F90">
+        <v>0.05162642355600962</v>
+      </c>
+      <c r="G90">
+        <v>-0.0137855453835234</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.2005940403714833</v>
+        <v>-0.1913849330320107</v>
       </c>
       <c r="C91">
-        <v>-0.1145193550152159</v>
+        <v>0.1390801889593534</v>
       </c>
       <c r="D91">
-        <v>0.07476787065995479</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1047449293439727</v>
+      </c>
+      <c r="E91">
+        <v>-0.07202037780584757</v>
+      </c>
+      <c r="F91">
+        <v>0.04684504119610156</v>
+      </c>
+      <c r="G91">
+        <v>0.06190158517327391</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1708676208990096</v>
+        <v>-0.1849261847489796</v>
       </c>
       <c r="C92">
-        <v>0.2794689948207802</v>
+        <v>-0.2793360057559618</v>
       </c>
       <c r="D92">
-        <v>0.02943359563492733</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.01146445285275726</v>
+      </c>
+      <c r="E92">
+        <v>-0.07042752165344716</v>
+      </c>
+      <c r="F92">
+        <v>0.07676820270655026</v>
+      </c>
+      <c r="G92">
+        <v>-0.008013129867518383</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1999196803340196</v>
+        <v>-0.2259285323611246</v>
       </c>
       <c r="C93">
-        <v>0.3394465401873375</v>
+        <v>-0.3186493658169449</v>
       </c>
       <c r="D93">
-        <v>0.0001666275090517249</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.005038886076353188</v>
+      </c>
+      <c r="E93">
+        <v>-0.0498519589073236</v>
+      </c>
+      <c r="F93">
+        <v>0.04843472061925676</v>
+      </c>
+      <c r="G93">
+        <v>0.02863118902828458</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.2831562268123421</v>
+        <v>-0.3420362356977021</v>
       </c>
       <c r="C94">
-        <v>-0.146271104377378</v>
+        <v>0.1973144480590574</v>
       </c>
       <c r="D94">
-        <v>0.1579529888973473</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4744939119491529</v>
+      </c>
+      <c r="E94">
+        <v>-0.1671117712383587</v>
+      </c>
+      <c r="F94">
+        <v>-0.429076245761642</v>
+      </c>
+      <c r="G94">
+        <v>-0.3162080260900554</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.08753009263400191</v>
+        <v>-0.08198130957173065</v>
       </c>
       <c r="C95">
-        <v>-0.07899961075615242</v>
+        <v>0.07768240613006624</v>
       </c>
       <c r="D95">
-        <v>-0.06405067354605966</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1522725368873604</v>
+      </c>
+      <c r="E95">
+        <v>0.1363168434707223</v>
+      </c>
+      <c r="F95">
+        <v>0.2105016943466951</v>
+      </c>
+      <c r="G95">
+        <v>-0.8744680279471098</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2076862969892637</v>
+        <v>-0.189738255683207</v>
       </c>
       <c r="C98">
-        <v>-0.02508837103094787</v>
+        <v>0.03850918810468192</v>
       </c>
       <c r="D98">
-        <v>-0.06283604262406649</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1758706264348753</v>
+      </c>
+      <c r="E98">
+        <v>0.1533610955835761</v>
+      </c>
+      <c r="F98">
+        <v>-0.04743330807609886</v>
+      </c>
+      <c r="G98">
+        <v>0.1048402039759931</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01117567703390286</v>
+        <v>-0.006894440325826989</v>
       </c>
       <c r="C101">
-        <v>-0.02527952847005781</v>
+        <v>0.02421279767155196</v>
       </c>
       <c r="D101">
-        <v>0.01754891791817895</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01923905190764973</v>
+      </c>
+      <c r="E101">
+        <v>-0.0278734050363205</v>
+      </c>
+      <c r="F101">
+        <v>0.08807116068750588</v>
+      </c>
+      <c r="G101">
+        <v>0.007178853003187982</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1207262736333859</v>
+        <v>-0.1232402498892589</v>
       </c>
       <c r="C102">
-        <v>-0.07552509293882159</v>
+        <v>0.099190616532972</v>
       </c>
       <c r="D102">
-        <v>0.04649726015654158</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05053454715269227</v>
+      </c>
+      <c r="E102">
+        <v>0.01141202576205159</v>
+      </c>
+      <c r="F102">
+        <v>0.03813080526922889</v>
+      </c>
+      <c r="G102">
+        <v>0.02452982320991923</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
